--- a/data/misused_bar_graph_figures/nature/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nature/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nature/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098B58F7-AA13-584A-806E-6AB9A354A314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBBB467-C682-1D4D-AE8E-B221E9A1206B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3620" yWindow="22340" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4686" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4686" uniqueCount="683">
   <si>
     <t>Fig Index</t>
   </si>
@@ -2050,18 +2050,12 @@
     <t>Bioluminescence</t>
   </si>
   <si>
-    <t>RNA count</t>
-  </si>
-  <si>
     <t>Fluorescence</t>
   </si>
   <si>
     <t>Constant</t>
   </si>
   <si>
-    <t>Equilibrium constant</t>
-  </si>
-  <si>
     <t>Characteristic concentration</t>
   </si>
   <si>
@@ -2071,13 +2065,7 @@
     <t>Cell viability</t>
   </si>
   <si>
-    <t>Efficiency</t>
-  </si>
-  <si>
     <t>Cell percentage</t>
-  </si>
-  <si>
-    <t>Mass</t>
   </si>
   <si>
     <t>Others</t>
@@ -2493,8 +2481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B73" zoomScale="176" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView tabSelected="1" topLeftCell="F81" zoomScale="176" workbookViewId="0">
+      <selection activeCell="I93" sqref="I93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3619,7 +3607,7 @@
         <v>665</v>
       </c>
       <c r="J32" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="K32" t="s">
         <v>660</v>
@@ -3724,7 +3712,7 @@
         <v>665</v>
       </c>
       <c r="J35" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="K35" t="s">
         <v>660</v>
@@ -3759,7 +3747,7 @@
         <v>665</v>
       </c>
       <c r="J36" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="K36" t="s">
         <v>660</v>
@@ -4316,7 +4304,7 @@
         <v>662</v>
       </c>
       <c r="I52" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J52" t="s">
         <v>663</v>
@@ -4386,7 +4374,7 @@
         <v>662</v>
       </c>
       <c r="I54" t="s">
-        <v>631</v>
+        <v>678</v>
       </c>
       <c r="J54" t="s">
         <v>663</v>
@@ -5751,7 +5739,7 @@
         <v>662</v>
       </c>
       <c r="I93" t="s">
-        <v>676</v>
+        <v>638</v>
       </c>
       <c r="J93" t="s">
         <v>638</v>
@@ -5859,7 +5847,7 @@
         <v>674</v>
       </c>
       <c r="J96" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K96" t="s">
         <v>660</v>
@@ -7119,7 +7107,7 @@
         <v>674</v>
       </c>
       <c r="J132" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K132" t="s">
         <v>660</v>
@@ -7291,10 +7279,10 @@
         <v>662</v>
       </c>
       <c r="I137" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="J137" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
       <c r="K137" t="s">
         <v>660</v>
@@ -7781,7 +7769,7 @@
         <v>662</v>
       </c>
       <c r="I151" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J151" t="s">
         <v>663</v>
@@ -7816,7 +7804,7 @@
         <v>662</v>
       </c>
       <c r="I152" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J152" t="s">
         <v>663</v>
@@ -7850,11 +7838,11 @@
       <c r="H153" s="7" t="s">
         <v>662</v>
       </c>
-      <c r="I153" s="7" t="s">
-        <v>679</v>
-      </c>
-      <c r="J153" s="7" t="s">
+      <c r="I153" t="s">
         <v>678</v>
+      </c>
+      <c r="J153" t="s">
+        <v>663</v>
       </c>
       <c r="K153" s="7" t="s">
         <v>660</v>
@@ -7885,11 +7873,11 @@
       <c r="H154" s="7" t="s">
         <v>662</v>
       </c>
-      <c r="I154" s="7" t="s">
-        <v>679</v>
-      </c>
-      <c r="J154" s="7" t="s">
+      <c r="I154" t="s">
         <v>678</v>
+      </c>
+      <c r="J154" t="s">
+        <v>663</v>
       </c>
       <c r="K154" s="7" t="s">
         <v>660</v>
@@ -7924,7 +7912,7 @@
         <v>674</v>
       </c>
       <c r="J155" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K155" t="s">
         <v>660</v>
@@ -7959,7 +7947,7 @@
         <v>674</v>
       </c>
       <c r="J156" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K156" t="s">
         <v>660</v>
@@ -8099,7 +8087,7 @@
         <v>674</v>
       </c>
       <c r="J160" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K160" t="s">
         <v>660</v>
@@ -8134,7 +8122,7 @@
         <v>674</v>
       </c>
       <c r="J161" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K161" t="s">
         <v>660</v>
@@ -8239,7 +8227,7 @@
         <v>674</v>
       </c>
       <c r="J164" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K164" t="s">
         <v>660</v>
@@ -8274,7 +8262,7 @@
         <v>674</v>
       </c>
       <c r="J165" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K165" t="s">
         <v>660</v>
@@ -8309,7 +8297,7 @@
         <v>674</v>
       </c>
       <c r="J166" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K166" t="s">
         <v>660</v>
@@ -8379,7 +8367,7 @@
         <v>674</v>
       </c>
       <c r="J168" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K168" t="s">
         <v>660</v>
@@ -8414,7 +8402,7 @@
         <v>674</v>
       </c>
       <c r="J169" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K169" t="s">
         <v>660</v>
@@ -8449,7 +8437,7 @@
         <v>674</v>
       </c>
       <c r="J170" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K170" t="s">
         <v>660</v>
@@ -8484,7 +8472,7 @@
         <v>674</v>
       </c>
       <c r="J171" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K171" t="s">
         <v>660</v>
@@ -8519,7 +8507,7 @@
         <v>674</v>
       </c>
       <c r="J172" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K172" t="s">
         <v>660</v>
@@ -8554,7 +8542,7 @@
         <v>674</v>
       </c>
       <c r="J173" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K173" t="s">
         <v>660</v>
@@ -8624,7 +8612,7 @@
         <v>674</v>
       </c>
       <c r="J175" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K175" t="s">
         <v>660</v>
@@ -8659,7 +8647,7 @@
         <v>674</v>
       </c>
       <c r="J176" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K176" t="s">
         <v>660</v>
@@ -8694,7 +8682,7 @@
         <v>674</v>
       </c>
       <c r="J177" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K177" t="s">
         <v>660</v>
@@ -8869,7 +8857,7 @@
         <v>674</v>
       </c>
       <c r="J182" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K182" t="s">
         <v>660</v>
@@ -8904,7 +8892,7 @@
         <v>674</v>
       </c>
       <c r="J183" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K183" t="s">
         <v>660</v>
@@ -9114,7 +9102,7 @@
         <v>674</v>
       </c>
       <c r="J189" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K189" t="s">
         <v>660</v>
@@ -9149,7 +9137,7 @@
         <v>674</v>
       </c>
       <c r="J190" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K190" t="s">
         <v>660</v>
@@ -9184,7 +9172,7 @@
         <v>674</v>
       </c>
       <c r="J191" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K191" t="s">
         <v>660</v>
@@ -9254,7 +9242,7 @@
         <v>674</v>
       </c>
       <c r="J193" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K193" t="s">
         <v>660</v>
@@ -9496,7 +9484,7 @@
         <v>662</v>
       </c>
       <c r="I200" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J200" t="s">
         <v>663</v>
@@ -10301,7 +10289,7 @@
         <v>662</v>
       </c>
       <c r="I223" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="J223" t="s">
         <v>638</v>
@@ -10336,7 +10324,7 @@
         <v>662</v>
       </c>
       <c r="I224" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="J224" t="s">
         <v>638</v>
@@ -10406,7 +10394,7 @@
         <v>662</v>
       </c>
       <c r="I226" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J226" t="s">
         <v>663</v>
@@ -10441,7 +10429,7 @@
         <v>662</v>
       </c>
       <c r="I227" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J227" t="s">
         <v>663</v>
@@ -10476,7 +10464,7 @@
         <v>662</v>
       </c>
       <c r="I228" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J228" t="s">
         <v>663</v>
@@ -10511,7 +10499,7 @@
         <v>662</v>
       </c>
       <c r="I229" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J229" t="s">
         <v>663</v>
@@ -10546,10 +10534,10 @@
         <v>662</v>
       </c>
       <c r="I230" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="J230" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
       <c r="K230" t="s">
         <v>660</v>
@@ -10616,10 +10604,10 @@
         <v>662</v>
       </c>
       <c r="I232" t="s">
-        <v>597</v>
+        <v>677</v>
       </c>
       <c r="J232" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="K232" t="s">
         <v>660</v>
@@ -10651,7 +10639,7 @@
         <v>662</v>
       </c>
       <c r="I233" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J233" t="s">
         <v>663</v>
@@ -10686,7 +10674,7 @@
         <v>662</v>
       </c>
       <c r="I234" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J234" t="s">
         <v>663</v>
@@ -10721,7 +10709,7 @@
         <v>662</v>
       </c>
       <c r="I235" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J235" t="s">
         <v>663</v>
@@ -10756,7 +10744,7 @@
         <v>662</v>
       </c>
       <c r="I236" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J236" t="s">
         <v>663</v>
@@ -10791,7 +10779,7 @@
         <v>662</v>
       </c>
       <c r="I237" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J237" t="s">
         <v>663</v>
@@ -10861,7 +10849,7 @@
         <v>662</v>
       </c>
       <c r="I239" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J239" t="s">
         <v>663</v>
@@ -11001,7 +10989,7 @@
         <v>671</v>
       </c>
       <c r="I243" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="J243" t="s">
         <v>671</v>
@@ -11771,7 +11759,7 @@
         <v>662</v>
       </c>
       <c r="I265" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="J265" t="s">
         <v>638</v>
@@ -11946,7 +11934,7 @@
         <v>671</v>
       </c>
       <c r="I270" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="J270" t="s">
         <v>671</v>
@@ -12191,7 +12179,7 @@
         <v>671</v>
       </c>
       <c r="I277" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="J277" t="s">
         <v>671</v>
@@ -12996,7 +12984,7 @@
         <v>671</v>
       </c>
       <c r="I300" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="J300" t="s">
         <v>671</v>
@@ -13031,7 +13019,7 @@
         <v>671</v>
       </c>
       <c r="I301" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="J301" t="s">
         <v>671</v>
@@ -13171,10 +13159,10 @@
         <v>662</v>
       </c>
       <c r="I305" t="s">
-        <v>685</v>
+        <v>663</v>
       </c>
       <c r="J305" t="s">
-        <v>685</v>
+        <v>663</v>
       </c>
       <c r="K305" t="s">
         <v>660</v>
@@ -13206,10 +13194,10 @@
         <v>662</v>
       </c>
       <c r="I306" t="s">
-        <v>685</v>
+        <v>663</v>
       </c>
       <c r="J306" t="s">
-        <v>685</v>
+        <v>663</v>
       </c>
       <c r="K306" t="s">
         <v>660</v>
@@ -13906,10 +13894,10 @@
         <v>662</v>
       </c>
       <c r="I326" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="J326" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
       <c r="K326" t="s">
         <v>660</v>
@@ -14081,7 +14069,7 @@
         <v>662</v>
       </c>
       <c r="I331" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J331" t="s">
         <v>663</v>
@@ -14116,7 +14104,7 @@
         <v>662</v>
       </c>
       <c r="I332" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J332" t="s">
         <v>663</v>
@@ -14186,7 +14174,7 @@
         <v>662</v>
       </c>
       <c r="I334" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J334" t="s">
         <v>663</v>
@@ -14326,7 +14314,7 @@
         <v>662</v>
       </c>
       <c r="I338" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J338" t="s">
         <v>663</v>
@@ -14396,7 +14384,7 @@
         <v>662</v>
       </c>
       <c r="I340" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J340" t="s">
         <v>663</v>
@@ -14431,7 +14419,7 @@
         <v>662</v>
       </c>
       <c r="I341" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J341" t="s">
         <v>663</v>
@@ -14571,7 +14559,7 @@
         <v>662</v>
       </c>
       <c r="I345" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J345" t="s">
         <v>663</v>
@@ -14606,7 +14594,7 @@
         <v>662</v>
       </c>
       <c r="I346" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J346" t="s">
         <v>663</v>
@@ -14641,7 +14629,7 @@
         <v>662</v>
       </c>
       <c r="I347" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J347" t="s">
         <v>663</v>
@@ -14676,7 +14664,7 @@
         <v>662</v>
       </c>
       <c r="I348" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J348" t="s">
         <v>663</v>
@@ -14746,7 +14734,7 @@
         <v>662</v>
       </c>
       <c r="I350" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J350" t="s">
         <v>663</v>
@@ -14781,7 +14769,7 @@
         <v>662</v>
       </c>
       <c r="I351" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J351" t="s">
         <v>663</v>
@@ -14851,7 +14839,7 @@
         <v>662</v>
       </c>
       <c r="I353" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J353" t="s">
         <v>663</v>
@@ -14991,7 +14979,7 @@
         <v>662</v>
       </c>
       <c r="I357" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J357" t="s">
         <v>663</v>
@@ -15096,7 +15084,7 @@
         <v>662</v>
       </c>
       <c r="I360" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J360" t="s">
         <v>663</v>
@@ -15166,7 +15154,7 @@
         <v>662</v>
       </c>
       <c r="I362" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J362" t="s">
         <v>663</v>
@@ -16566,7 +16554,7 @@
         <v>662</v>
       </c>
       <c r="I402" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="J402" t="s">
         <v>638</v>

--- a/data/misused_bar_graph_figures/nature/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nature/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nature/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBBB467-C682-1D4D-AE8E-B221E9A1206B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC8BBCE-D2D9-0845-B39E-691834161121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3620" yWindow="22340" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4686" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4686" uniqueCount="682">
   <si>
     <t>Fig Index</t>
   </si>
@@ -2057,9 +2057,6 @@
   </si>
   <si>
     <t>Characteristic concentration</t>
-  </si>
-  <si>
-    <t>Colony count</t>
   </si>
   <si>
     <t>Cell viability</t>
@@ -2481,8 +2478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F81" zoomScale="176" workbookViewId="0">
-      <selection activeCell="I93" sqref="I93"/>
+    <sheetView tabSelected="1" topLeftCell="F253" zoomScale="176" workbookViewId="0">
+      <selection activeCell="I268" sqref="I268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3607,7 +3604,7 @@
         <v>665</v>
       </c>
       <c r="J32" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K32" t="s">
         <v>660</v>
@@ -3712,7 +3709,7 @@
         <v>665</v>
       </c>
       <c r="J35" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K35" t="s">
         <v>660</v>
@@ -3747,7 +3744,7 @@
         <v>665</v>
       </c>
       <c r="J36" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K36" t="s">
         <v>660</v>
@@ -10289,10 +10286,10 @@
         <v>662</v>
       </c>
       <c r="I223" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
       <c r="J223" t="s">
-        <v>638</v>
+        <v>663</v>
       </c>
       <c r="K223" t="s">
         <v>660</v>
@@ -10324,10 +10321,10 @@
         <v>662</v>
       </c>
       <c r="I224" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
       <c r="J224" t="s">
-        <v>638</v>
+        <v>663</v>
       </c>
       <c r="K224" t="s">
         <v>660</v>
@@ -10989,7 +10986,7 @@
         <v>671</v>
       </c>
       <c r="I243" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J243" t="s">
         <v>671</v>
@@ -11759,10 +11756,10 @@
         <v>662</v>
       </c>
       <c r="I265" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
       <c r="J265" t="s">
-        <v>638</v>
+        <v>663</v>
       </c>
       <c r="K265" t="s">
         <v>660</v>
@@ -12984,7 +12981,7 @@
         <v>671</v>
       </c>
       <c r="I300" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J300" t="s">
         <v>671</v>
@@ -13019,7 +13016,7 @@
         <v>671</v>
       </c>
       <c r="I301" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J301" t="s">
         <v>671</v>

--- a/data/misused_bar_graph_figures/nature/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nature/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nature/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B4F512-2457-2144-BF37-A81B51826EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125956CB-45A3-494E-A494-78B52EE514CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="800" yWindow="740" windowWidth="28600" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4686" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4708" uniqueCount="680">
   <si>
     <t>Fig Index</t>
   </si>
@@ -2054,6 +2054,12 @@
   </si>
   <si>
     <t>10.1038:s41586-023-05755-9_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41586-023-06937-1_log_fig19</t>
+  </si>
+  <si>
+    <t>10.1038:s41586-023-06937-1_log_fig20</t>
   </si>
 </sst>
 </file>
@@ -2464,10 +2470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K426"/>
+  <dimension ref="A1:K428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" zoomScale="176" workbookViewId="0">
-      <selection activeCell="E190" sqref="E190"/>
+    <sheetView tabSelected="1" topLeftCell="A407" zoomScale="176" workbookViewId="0">
+      <selection activeCell="D414" sqref="D414:D416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16936,7 +16942,7 @@
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
-        <v>509</v>
+        <v>678</v>
       </c>
       <c r="B414" t="s">
         <v>499</v>
@@ -16945,13 +16951,13 @@
         <v>7</v>
       </c>
       <c r="D414" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="E414" t="s">
         <v>9</v>
       </c>
       <c r="F414" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G414" t="s">
         <v>655</v>
@@ -16971,7 +16977,7 @@
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B415" t="s">
         <v>499</v>
@@ -16980,13 +16986,13 @@
         <v>7</v>
       </c>
       <c r="D415" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E415" t="s">
         <v>9</v>
       </c>
       <c r="F415" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G415" t="s">
         <v>655</v>
@@ -17006,7 +17012,7 @@
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
-        <v>511</v>
+        <v>679</v>
       </c>
       <c r="B416" t="s">
         <v>499</v>
@@ -17015,13 +17021,13 @@
         <v>7</v>
       </c>
       <c r="D416" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="E416" t="s">
         <v>9</v>
       </c>
       <c r="F416" s="3" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G416" t="s">
         <v>655</v>
@@ -17041,7 +17047,7 @@
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B417" t="s">
         <v>499</v>
@@ -17050,13 +17056,13 @@
         <v>7</v>
       </c>
       <c r="D417" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E417" t="s">
         <v>9</v>
       </c>
       <c r="F417" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="G417" t="s">
         <v>655</v>
@@ -17076,7 +17082,7 @@
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B418" t="s">
         <v>499</v>
@@ -17085,13 +17091,13 @@
         <v>7</v>
       </c>
       <c r="D418" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E418" t="s">
         <v>9</v>
       </c>
       <c r="F418" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G418" t="s">
         <v>655</v>
@@ -17111,7 +17117,7 @@
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B419" t="s">
         <v>499</v>
@@ -17120,13 +17126,13 @@
         <v>7</v>
       </c>
       <c r="D419" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E419" t="s">
         <v>9</v>
       </c>
       <c r="F419" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G419" t="s">
         <v>655</v>
@@ -17146,7 +17152,7 @@
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B420" t="s">
         <v>499</v>
@@ -17155,7 +17161,7 @@
         <v>7</v>
       </c>
       <c r="D420" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E420" t="s">
         <v>9</v>
@@ -17181,7 +17187,7 @@
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B421" t="s">
         <v>499</v>
@@ -17190,7 +17196,7 @@
         <v>7</v>
       </c>
       <c r="D421" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E421" t="s">
         <v>9</v>
@@ -17216,34 +17222,34 @@
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B422" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="C422" t="s">
         <v>7</v>
       </c>
       <c r="D422" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E422" t="s">
         <v>9</v>
       </c>
       <c r="F422" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G422" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="H422" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="I422" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="J422" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="K422" t="s">
         <v>654</v>
@@ -17251,34 +17257,34 @@
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B423" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="C423" t="s">
         <v>7</v>
       </c>
       <c r="D423" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E423" t="s">
         <v>9</v>
       </c>
       <c r="F423" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G423" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="H423" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="I423" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="J423" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="K423" t="s">
         <v>654</v>
@@ -17286,7 +17292,7 @@
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B424" t="s">
         <v>518</v>
@@ -17295,25 +17301,25 @@
         <v>7</v>
       </c>
       <c r="D424" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E424" t="s">
         <v>9</v>
       </c>
       <c r="F424" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G424" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="H424" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="I424" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="J424" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="K424" t="s">
         <v>654</v>
@@ -17321,34 +17327,34 @@
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B425" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C425" t="s">
         <v>7</v>
       </c>
       <c r="D425" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E425" t="s">
         <v>9</v>
       </c>
       <c r="F425" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G425" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="H425" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="I425" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="J425" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="K425" t="s">
         <v>654</v>
@@ -17356,22 +17362,22 @@
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B426" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C426" t="s">
         <v>7</v>
       </c>
       <c r="D426" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E426" t="s">
         <v>9</v>
       </c>
       <c r="F426" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G426" t="s">
         <v>655</v>
@@ -17386,6 +17392,76 @@
         <v>666</v>
       </c>
       <c r="K426" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A427" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B427" t="s">
+        <v>522</v>
+      </c>
+      <c r="C427" t="s">
+        <v>7</v>
+      </c>
+      <c r="D427" t="s">
+        <v>8</v>
+      </c>
+      <c r="E427" t="s">
+        <v>9</v>
+      </c>
+      <c r="F427" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="G427" t="s">
+        <v>655</v>
+      </c>
+      <c r="H427" t="s">
+        <v>656</v>
+      </c>
+      <c r="I427" t="s">
+        <v>666</v>
+      </c>
+      <c r="J427" t="s">
+        <v>666</v>
+      </c>
+      <c r="K427" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A428" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B428" t="s">
+        <v>522</v>
+      </c>
+      <c r="C428" t="s">
+        <v>7</v>
+      </c>
+      <c r="D428" t="s">
+        <v>21</v>
+      </c>
+      <c r="E428" t="s">
+        <v>9</v>
+      </c>
+      <c r="F428" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="G428" t="s">
+        <v>655</v>
+      </c>
+      <c r="H428" t="s">
+        <v>656</v>
+      </c>
+      <c r="I428" t="s">
+        <v>666</v>
+      </c>
+      <c r="J428" t="s">
+        <v>666</v>
+      </c>
+      <c r="K428" t="s">
         <v>654</v>
       </c>
     </row>
